--- a/03DB設計書_絶対に法を犯さないマズロー.xlsx
+++ b/03DB設計書_絶対に法を犯さないマズロー.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/msteams_acd48d/Shared Documents/General/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent.sharepoint.com/sites/a_SD3C_abcc24/Shared Documents/03_提出用/02_設計書/絶対に法を犯さないマズロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{A5F8048E-CF1E-46C8-AF4B-168C4BC06BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F2A259D-C063-441B-908D-3A51CF09CC38}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{A5F8048E-CF1E-46C8-AF4B-168C4BC06BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1894D57F-BF63-405A-A91C-B189E5F9EBEF}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R 図" sheetId="2" r:id="rId1"/>
     <sheet name="ユーザー" sheetId="1" r:id="rId2"/>
     <sheet name="投稿" sheetId="3" r:id="rId3"/>
     <sheet name="画像" sheetId="4" r:id="rId4"/>
+    <sheet name="いいね" sheetId="6" r:id="rId5"/>
+    <sheet name="コメント" sheetId="7" r:id="rId6"/>
+    <sheet name="メッセージ" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">いいね!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">コメント!$A$1:$J$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">メッセージ!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ユーザー!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">画像!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">投稿!$A$1:$J$44</definedName>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="109">
   <si>
     <t>エンティティ一覧・E-R図</t>
   </si>
@@ -365,10 +371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>char</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -404,25 +406,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>コメント</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>いいね数</t>
-    <rPh sb="3" eb="4">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>good</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画像</t>
     <rPh sb="0" eb="2">
       <t>ガゾウ</t>
@@ -451,29 +434,266 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生成時間</t>
+    <t>コメントID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいねID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいねID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿ID</t>
     <rPh sb="0" eb="2">
-      <t>セイセイ</t>
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>good_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメントID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コメント内容</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返信ID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿時刻</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comment_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment_text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>replay_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいね機能に関する情報</t>
+    <rPh sb="3" eb="5">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント機能に関する情報</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー画像</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_picture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>like_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>comments_ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいね時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信ユーザーID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reuser_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本文</t>
+    <rPh sb="0" eb="2">
+      <t>ホンブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信ユーザーID</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>投稿時間</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>message_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>destination_user_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>created_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DM機能に関する情報</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1182,26 +1402,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>181909</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38473</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>334212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>316379</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43060</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>91362</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>27428</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
+        <xdr:cNvPr id="5" name="図 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DC7A4D-2261-4A5B-02B2-AC15481EE23B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3079B7E3-E755-E314-EEFB-17FB3785722A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,15 +1427,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="639109" y="4600948"/>
-          <a:ext cx="5973295" cy="1633362"/>
+          <a:off x="334212" y="4010526"/>
+          <a:ext cx="6040308" cy="4305323"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,19 +1718,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="3" customWidth="1"/>
-    <col min="2" max="4" width="14.875" style="3" customWidth="1"/>
+    <col min="2" max="4" width="14.90625" style="3" customWidth="1"/>
     <col min="5" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1744,7 @@
       <c r="I1" s="58"/>
       <c r="J1" s="58"/>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1">
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="58"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -1533,7 +1756,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="58"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19"/>
@@ -1541,7 +1764,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1775,7 @@
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>1</v>
       </c>
@@ -1594,7 +1817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>2</v>
       </c>
@@ -1612,7 +1835,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="65"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>3</v>
       </c>
@@ -1630,13 +1853,17 @@
       <c r="I8" s="64"/>
       <c r="J8" s="65"/>
     </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="25" t="s">
+        <v>78</v>
+      </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25" t="s">
+        <v>79</v>
+      </c>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -1644,13 +1871,17 @@
       <c r="I9" s="64"/>
       <c r="J9" s="65"/>
     </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>5</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="25" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="26"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1658,13 +1889,17 @@
       <c r="I10" s="64"/>
       <c r="J10" s="65"/>
     </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>6</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="25" t="s">
+        <v>107</v>
+      </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -1672,7 +1907,7 @@
       <c r="I11" s="64"/>
       <c r="J11" s="65"/>
     </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -1684,7 +1919,7 @@
       <c r="I12" s="62"/>
       <c r="J12" s="63"/>
     </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1696,7 +1931,7 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
     </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
@@ -1710,7 +1945,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -1722,7 +1957,7 @@
       <c r="I15" s="30"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -1734,7 +1969,7 @@
       <c r="I16" s="33"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -1746,7 +1981,7 @@
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -1761,7 +1996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -1773,7 +2008,7 @@
       <c r="I19" s="33"/>
       <c r="J19" s="34"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -1785,7 +2020,7 @@
       <c r="I20" s="33"/>
       <c r="J20" s="34"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -1797,7 +2032,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -1809,7 +2044,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -1821,7 +2056,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -1833,7 +2068,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="34"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -1845,7 +2080,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="34"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="32"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -1857,7 +2092,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="34"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="32"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -1869,7 +2104,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="32"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1881,7 +2116,7 @@
       <c r="I28" s="33"/>
       <c r="J28" s="34"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="32"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -1893,7 +2128,7 @@
       <c r="I29" s="33"/>
       <c r="J29" s="34"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="32"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -1905,7 +2140,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="34"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="32"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1917,7 +2152,7 @@
       <c r="I31" s="33"/>
       <c r="J31" s="34"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -1929,7 +2164,7 @@
       <c r="I32" s="33"/>
       <c r="J32" s="34"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="32"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -1941,7 +2176,7 @@
       <c r="I33" s="33"/>
       <c r="J33" s="34"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="32"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -1953,7 +2188,7 @@
       <c r="I34" s="33"/>
       <c r="J34" s="34"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="32"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1965,7 +2200,7 @@
       <c r="I35" s="33"/>
       <c r="J35" s="34"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="32"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -1977,7 +2212,7 @@
       <c r="I36" s="33"/>
       <c r="J36" s="34"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="32"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -1989,7 +2224,7 @@
       <c r="I37" s="33"/>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="32"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -2001,7 +2236,7 @@
       <c r="I38" s="33"/>
       <c r="J38" s="34"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -2013,7 +2248,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="34"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="32"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -2025,7 +2260,7 @@
       <c r="I40" s="33"/>
       <c r="J40" s="34"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="32"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -2037,7 +2272,7 @@
       <c r="I41" s="33"/>
       <c r="J41" s="34"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="32"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -2049,7 +2284,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="34"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="32"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -2061,7 +2296,7 @@
       <c r="I43" s="33"/>
       <c r="J43" s="34"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="32"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -2073,7 +2308,7 @@
       <c r="I44" s="33"/>
       <c r="J44" s="34"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="32"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -2082,7 +2317,7 @@
       <c r="F45" s="33"/>
       <c r="J45" s="35"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="36"/>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -2094,7 +2329,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="38"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -2102,7 +2337,7 @@
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -2110,7 +2345,7 @@
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -2118,7 +2353,7 @@
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -2126,7 +2361,7 @@
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -2134,7 +2369,7 @@
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -2142,7 +2377,7 @@
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -2150,7 +2385,7 @@
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -2158,7 +2393,7 @@
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -2191,21 +2426,21 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="3" width="17.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
     <col min="5" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="11" width="14" style="3" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="71" t="s">
         <v>15</v>
       </c>
@@ -2219,7 +2454,7 @@
       <c r="I1" s="71"/>
       <c r="J1" s="71"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
@@ -2231,7 +2466,7 @@
       <c r="I2" s="71"/>
       <c r="J2" s="71"/>
     </row>
-    <row r="3" spans="1:13" ht="26.1">
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2243,7 +2478,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="66" t="s">
         <v>16</v>
       </c>
@@ -2255,7 +2490,7 @@
       <c r="F5" s="69"/>
       <c r="G5" s="70"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2267,12 +2502,12 @@
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
@@ -2306,7 +2541,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -2325,16 +2560,14 @@
       <c r="F10" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>33</v>
-      </c>
+      <c r="G10" s="56"/>
       <c r="H10" s="56" t="s">
         <v>33</v>
       </c>
       <c r="I10" s="56"/>
       <c r="J10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -2365,7 +2598,7 @@
       </c>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -2393,7 +2626,7 @@
       <c r="K12" s="2"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -2422,12 +2655,22 @@
       </c>
       <c r="M13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="15">
+        <v>200</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
@@ -2436,7 +2679,7 @@
       <c r="K14" s="2"/>
       <c r="M14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2453,7 +2696,7 @@
       </c>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2467,7 +2710,7 @@
       <c r="K16" s="2"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2481,7 +2724,7 @@
       <c r="K17" s="2"/>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -2496,7 +2739,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -2511,7 +2754,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -2526,7 +2769,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -2541,7 +2784,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="16"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -2556,7 +2799,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="16"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2571,7 +2814,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -2586,7 +2829,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
@@ -2601,7 +2844,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -2616,7 +2859,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
@@ -2631,7 +2874,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
@@ -2646,7 +2889,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
@@ -2661,7 +2904,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -2676,7 +2919,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -2704,22 +2947,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065C00D6-EBA0-42F6-98F1-EC73487A72F1}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="39" customWidth="1"/>
-    <col min="2" max="3" width="17.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="39" customWidth="1"/>
+    <col min="2" max="3" width="17.08984375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="39" customWidth="1"/>
     <col min="5" max="10" width="8" style="39" customWidth="1"/>
     <col min="11" max="11" width="14" style="39" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="39" customWidth="1"/>
     <col min="13" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2976,7 @@
       <c r="I1" s="72"/>
       <c r="J1" s="72"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -2745,7 +2988,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
     </row>
-    <row r="3" spans="1:13" ht="26.1">
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2757,7 +3000,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="73" t="s">
         <v>16</v>
       </c>
@@ -2769,7 +3012,7 @@
       <c r="F5" s="76"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
@@ -2781,12 +3024,12 @@
       <c r="F6" s="46"/>
       <c r="G6" s="47"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
@@ -2820,7 +3063,7 @@
       <c r="K9" s="51"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>1</v>
       </c>
@@ -2831,48 +3074,48 @@
         <v>47</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E10" s="53">
         <v>8</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>2</v>
       </c>
       <c r="B11" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="53" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E11" s="53">
         <v>5</v>
       </c>
       <c r="F11" s="57"/>
       <c r="G11" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="53"/>
       <c r="K11" s="42"/>
@@ -2881,18 +3124,18 @@
       </c>
       <c r="M11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>3</v>
       </c>
       <c r="B12" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="D12" s="53" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>54</v>
       </c>
       <c r="E12" s="53">
         <v>200</v>
@@ -2900,25 +3143,25 @@
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
       <c r="H12" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="57"/>
       <c r="J12" s="53"/>
       <c r="K12" s="42"/>
       <c r="M12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>4</v>
       </c>
       <c r="B13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="53" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E13" s="53">
         <v>200</v>
@@ -2926,7 +3169,7 @@
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
       <c r="H13" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="53"/>
@@ -2936,60 +3179,64 @@
       </c>
       <c r="M13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <v>5</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E14" s="53">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="57" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="57"/>
       <c r="J14" s="53"/>
       <c r="K14" s="42"/>
       <c r="M14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
         <v>6</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E15" s="53">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="G15" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>48</v>
+      </c>
       <c r="I15" s="57"/>
-      <c r="J15" s="53">
-        <v>0</v>
-      </c>
+      <c r="J15" s="53"/>
       <c r="K15" s="42"/>
       <c r="L15" s="55" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -3003,7 +3250,7 @@
       <c r="K16" s="42"/>
       <c r="M16" s="54"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -3017,7 +3264,7 @@
       <c r="K17" s="42"/>
       <c r="M17" s="54"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -3032,7 +3279,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="54"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -3047,7 +3294,7 @@
       <c r="L19" s="42"/>
       <c r="M19" s="54"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -3062,7 +3309,7 @@
       <c r="L20" s="42"/>
       <c r="M20" s="54"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -3077,7 +3324,7 @@
       <c r="L21" s="42"/>
       <c r="M21" s="54"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -3092,7 +3339,7 @@
       <c r="L22" s="42"/>
       <c r="M22" s="54"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3107,7 +3354,7 @@
       <c r="L23" s="42"/>
       <c r="M23" s="54"/>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3122,7 +3369,7 @@
       <c r="L24" s="42"/>
       <c r="M24" s="54"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3137,7 +3384,7 @@
       <c r="L25" s="42"/>
       <c r="M25" s="54"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3152,7 +3399,7 @@
       <c r="L26" s="42"/>
       <c r="M26" s="54"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -3167,7 +3414,7 @@
       <c r="L27" s="42"/>
       <c r="M27" s="54"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -3182,7 +3429,7 @@
       <c r="L28" s="42"/>
       <c r="M28" s="54"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3197,7 +3444,7 @@
       <c r="L29" s="42"/>
       <c r="M29" s="54"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -3212,7 +3459,7 @@
       <c r="L30" s="42"/>
       <c r="M30" s="54"/>
     </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3240,22 +3487,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AB01D3-C661-448E-8578-E6DB48AA249A}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="39" customWidth="1"/>
-    <col min="2" max="3" width="17.125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="39" customWidth="1"/>
+    <col min="2" max="3" width="17.08984375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="39" customWidth="1"/>
     <col min="5" max="10" width="8" style="39" customWidth="1"/>
     <col min="11" max="11" width="14" style="39" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="39" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="39" customWidth="1"/>
     <col min="13" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>15</v>
       </c>
@@ -3269,7 +3516,7 @@
       <c r="I1" s="72"/>
       <c r="J1" s="72"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="72"/>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -3281,7 +3528,7 @@
       <c r="I2" s="72"/>
       <c r="J2" s="72"/>
     </row>
-    <row r="3" spans="1:13" ht="26.1">
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -3293,7 +3540,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
     </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1">
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="73" t="s">
         <v>16</v>
       </c>
@@ -3305,24 +3552,24 @@
       <c r="F5" s="76"/>
       <c r="G5" s="77"/>
     </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1">
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="46"/>
       <c r="G6" s="47"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="49" t="s">
         <v>2</v>
       </c>
@@ -3356,109 +3603,83 @@
       <c r="K9" s="51"/>
       <c r="L9" s="52"/>
     </row>
-    <row r="10" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>1</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="53" t="s">
-        <v>56</v>
-      </c>
       <c r="D10" s="53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="53">
         <v>200</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="57"/>
       <c r="J10" s="53"/>
       <c r="K10" s="42"/>
     </row>
-    <row r="11" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>2</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E11" s="53">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="F11" s="57"/>
-      <c r="G11" s="57" t="s">
-        <v>49</v>
-      </c>
+      <c r="G11" s="57"/>
       <c r="H11" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="I11" s="57"/>
       <c r="J11" s="53"/>
       <c r="L11" s="52" t="s">
         <v>37</v>
       </c>
       <c r="M11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="53">
-        <v>3</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="53">
-        <v>100</v>
-      </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
-        <v>49</v>
-      </c>
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="57"/>
       <c r="J12" s="53"/>
       <c r="M12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="53">
-        <v>4</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>68</v>
-      </c>
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
-      <c r="H13" s="57" t="s">
-        <v>49</v>
-      </c>
+      <c r="H13" s="57"/>
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
       <c r="K13" s="42"/>
@@ -3467,7 +3688,7 @@
       </c>
       <c r="M13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -3481,7 +3702,7 @@
       <c r="K14" s="42"/>
       <c r="M14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -3498,7 +3719,7 @@
       </c>
       <c r="M15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -3512,7 +3733,7 @@
       <c r="K16" s="42"/>
       <c r="M16" s="54"/>
     </row>
-    <row r="17" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -3526,7 +3747,7 @@
       <c r="K17" s="42"/>
       <c r="M17" s="54"/>
     </row>
-    <row r="18" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -3541,7 +3762,7 @@
       <c r="L18" s="42"/>
       <c r="M18" s="54"/>
     </row>
-    <row r="19" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -3556,7 +3777,7 @@
       <c r="L19" s="42"/>
       <c r="M19" s="54"/>
     </row>
-    <row r="20" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -3571,7 +3792,7 @@
       <c r="L20" s="42"/>
       <c r="M20" s="54"/>
     </row>
-    <row r="21" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -3586,7 +3807,7 @@
       <c r="L21" s="42"/>
       <c r="M21" s="54"/>
     </row>
-    <row r="22" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -3601,7 +3822,7 @@
       <c r="L22" s="42"/>
       <c r="M22" s="54"/>
     </row>
-    <row r="23" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -3616,7 +3837,7 @@
       <c r="L23" s="42"/>
       <c r="M23" s="54"/>
     </row>
-    <row r="24" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -3631,7 +3852,7 @@
       <c r="L24" s="42"/>
       <c r="M24" s="54"/>
     </row>
-    <row r="25" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -3646,7 +3867,7 @@
       <c r="L25" s="42"/>
       <c r="M25" s="54"/>
     </row>
-    <row r="26" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -3661,7 +3882,7 @@
       <c r="L26" s="42"/>
       <c r="M26" s="54"/>
     </row>
-    <row r="27" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -3676,7 +3897,7 @@
       <c r="L27" s="42"/>
       <c r="M27" s="54"/>
     </row>
-    <row r="28" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -3691,7 +3912,7 @@
       <c r="L28" s="42"/>
       <c r="M28" s="54"/>
     </row>
-    <row r="29" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -3706,7 +3927,7 @@
       <c r="L29" s="42"/>
       <c r="M29" s="54"/>
     </row>
-    <row r="30" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -3721,7 +3942,7 @@
       <c r="L30" s="42"/>
       <c r="M30" s="54"/>
     </row>
-    <row r="31" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -3745,20 +3966,1619 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F09EB28-E119-4844-B5C1-EFDFEE1217CF}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15">
+        <v>100</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15">
+        <v>100</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB829B1-E4EF-4D15-AE45-669B25F0A83A}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="17.08984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>1</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="15">
+        <v>8</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="15">
+        <v>200</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="15">
+        <v>100</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="2"/>
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="16"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="15">
+        <v>200</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="2"/>
+      <c r="M14" s="16"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="2"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="2"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEA0144-7230-4332-AAE8-33399F9A9F68}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.26953125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="39" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="8" style="39" customWidth="1"/>
+    <col min="10" max="10" width="25.90625" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="39" customWidth="1"/>
+    <col min="12" max="12" width="27.08984375" style="39" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+    </row>
+    <row r="3" spans="1:13" ht="26" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+    </row>
+    <row r="10" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="53">
+        <v>1</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="53">
+        <v>5</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>2</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="53">
+        <v>200</v>
+      </c>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="53"/>
+      <c r="L11" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="53">
+        <v>3</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="53">
+        <v>6</v>
+      </c>
+      <c r="F12" s="53"/>
+      <c r="G12" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="53"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="53"/>
+      <c r="M12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="53">
+        <v>4</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="53">
+        <v>5</v>
+      </c>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="53">
+        <v>5</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="53">
+        <v>5</v>
+      </c>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="42"/>
+      <c r="M14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="53">
+        <v>6</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="K15" s="42"/>
+      <c r="L15" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="42"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="42"/>
+      <c r="M17" s="54"/>
+    </row>
+    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="54"/>
+    </row>
+    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="54"/>
+    </row>
+    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="54"/>
+    </row>
+    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="54"/>
+    </row>
+    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="54"/>
+    </row>
+    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="54"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="54"/>
+    </row>
+    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="54"/>
+    </row>
+    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="54"/>
+    </row>
+    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="54"/>
+    </row>
+    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="54"/>
+    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="05501951-4c72-411f-bd62-2ea8bacaaa22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="24288dd6-a10b-4bbd-9709-969a9ca5030f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005639E3EE03989F47A6D270CC22BA09A2" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3cd2a082748b7d8b40e2c9a666abe5f6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="25b4e0c7-408b-4c10-8b8c-dc9d014c5782" xmlns:ns3="a07bcbfc-40da-4c2c-a402-50c677bd332c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e8f3dabbe4038de0948d21d5894dfdc1" ns2:_="" ns3:_="">
-    <xsd:import namespace="25b4e0c7-408b-4c10-8b8c-dc9d014c5782"/>
-    <xsd:import namespace="a07bcbfc-40da-4c2c-a402-50c677bd332c"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010042DFD04490200B47A76C1CE793EACE7F" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2017304d850e0d6876ad0d2b7858762e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24288dd6-a10b-4bbd-9709-969a9ca5030f" xmlns:ns3="05501951-4c72-411f-bd62-2ea8bacaaa22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1785773b0f630b9cbf9c0e5ebabba45" ns2:_="" ns3:_="">
+    <xsd:import namespace="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <xsd:import namespace="05501951-4c72-411f-bd62-2ea8bacaaa22"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -3769,12 +5589,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3782,7 +5604,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="25b4e0c7-408b-4c10-8b8c-dc9d014c5782" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="24288dd6-a10b-4bbd-9709-969a9ca5030f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -3805,40 +5627,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="画像タグ" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="7a3d4e50-da24-4b51-9333-67165e7dee8a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a07bcbfc-40da-4c2c-a402-50c677bd332c" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="05501951-4c72-411f-bd62-2ea8bacaaa22" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{43ffd9aa-6490-4cb3-a75a-be94bee5c69f}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a07bcbfc-40da-4c2c-a402-50c677bd332c">
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{7236fc4a-eaee-4cbf-acaf-f2250c171658}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="05501951-4c72-411f-bd62-2ea8bacaaa22">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -3848,6 +5670,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="共有相手" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="共有相手の詳細情報" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3950,24 +5798,54 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a07bcbfc-40da-4c2c-a402-50c677bd332c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="25b4e0c7-408b-4c10-8b8c-dc9d014c5782">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E4BD01-E561-44AF-BDA7-D2BE01DF2E10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66BD14D-7CD4-4F14-8D64-1BF902C1B4E2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="05501951-4c72-411f-bd62-2ea8bacaaa22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DC9701-68C2-45F8-AC56-9C27246C009C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC79AB6C-0DF7-4A02-8845-FE2ACC93C251}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <ds:schemaRef ds:uri="05501951-4c72-411f-bd62-2ea8bacaaa22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E66BD14D-7CD4-4F14-8D64-1BF902C1B4E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90E4BD01-E561-44AF-BDA7-D2BE01DF2E10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>